--- a/BOMs/PCB BOMs/Controller/C_BOM.xlsx
+++ b/BOMs/PCB BOMs/Controller/C_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke Waller\Documents\GitHub\Final-Year-Project\BOMs\PCB BOMs\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97629FD-AED3-4C63-AE6D-050357827137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA49B34-CD2D-4FC0-B1C0-738BC07F1A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-2190" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>Part</t>
   </si>
@@ -229,10 +229,22 @@
     <t>https://uk.farnell.com/diodes-inc/zldo1117g50ta/ic-ldo-reg-1a-5v-sot223-3/dp/1825377?ICID=I-RP-STM7REC-0</t>
   </si>
   <si>
-    <t>farnell</t>
-  </si>
-  <si>
     <t>https://uk.farnell.com/stmicroelectronics/l79l05acutr/ic-neg-voltage-regulator-5v-sot89/dp/1467770?ICID=I-RP-STM7REC-1</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/alcoswitch-te-connectivity/fsm4jsmatr/switch-tactile-spst-0-05a-outside/dp/2292960?st=button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouser </t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Eagle-Plastic-Devices/12BHC186P1-GR?qs=yqaQSyyJnNiNkNtwVjdKJQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Digikey</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,6 +1185,9 @@
       <c r="C18">
         <v>5</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1223,6 +1238,9 @@
       <c r="C20">
         <v>4</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1236,6 +1254,12 @@
       <c r="H20" t="str">
         <f t="shared" si="1"/>
         <v>0/4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1248,9 +1272,12 @@
       <c r="C21">
         <v>20</v>
       </c>
+      <c r="D21">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1261,6 +1288,12 @@
       <c r="H21" t="str">
         <f t="shared" si="1"/>
         <v>0/20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1273,6 +1306,9 @@
       <c r="C22">
         <v>10</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1298,9 +1334,12 @@
       <c r="C23">
         <v>4</v>
       </c>
+      <c r="D23">
+        <v>2.77</v>
+      </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.08</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1311,6 +1350,12 @@
       <c r="H23" t="str">
         <f t="shared" si="1"/>
         <v>0/4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1341,7 +1386,7 @@
         <v>0/5</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
         <v>63</v>
@@ -1375,10 +1420,10 @@
         <v>0/5</v>
       </c>
       <c r="I25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" t="s">
         <v>64</v>
-      </c>
-      <c r="J25" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
